--- a/data/InvArt.xlsx
+++ b/data/InvArt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmmartinf\Documents\R\FoE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmmartinf\Documents\R\FoE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5953,7 +5953,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D32"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
